--- a/docsbox/docs/tests/inputs/test1.xlsx
+++ b/docsbox/docs/tests/inputs/test1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\martinstf\Desktop\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nuno.franco\Documents\Projects\SAMPO\docsbox\docsbox\docs\tests\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -515,7 +515,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>